--- a/AA - Calendario de Turnos(version Abril-Julio 2024).xlsx
+++ b/AA - Calendario de Turnos(version Abril-Julio 2024).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I123"/>
+  <dimension ref="A1:I155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,29 +485,29 @@
         <v>2024</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Lunes</t>
+          <t>Jueves</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Gomez</t>
+          <t>Bravo</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Cisternas</t>
+          <t>Culaciati</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Pio</t>
+          <t>Recluta1</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -517,7 +517,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Recluta1</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -526,29 +526,29 @@
         <v>2024</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Martes</t>
+          <t>Viernes</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Iñiguez</t>
+          <t>Breinbauer</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Contreras</t>
+          <t>Boettiger</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Alvo</t>
+          <t>Pio</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -558,7 +558,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Recluta1</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -567,29 +567,29 @@
         <v>2024</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Miércoles</t>
+          <t>Sábado</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Arredondo</t>
+          <t>Pio</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Carrasco</t>
+          <t>Pio</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Boettiger</t>
+          <t>Pio</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -599,7 +599,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Recluta1</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -608,29 +608,29 @@
         <v>2024</v>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Jueves</t>
+          <t>Domingo</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Bravo</t>
+          <t>Alvo</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Culaciati</t>
+          <t>Alvo</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Loch</t>
+          <t>Alvo</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -640,7 +640,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Recluta1</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -649,29 +649,29 @@
         <v>2024</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C6" t="n">
         <v>5</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Viernes</t>
+          <t>Lunes</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Breinbauer</t>
+          <t>Gomez</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Pio</t>
+          <t>Cisternas</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Rubio</t>
+          <t>Alvo</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Recluta1</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -690,29 +690,29 @@
         <v>2024</v>
       </c>
       <c r="B7" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C7" t="n">
         <v>6</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Sábado</t>
+          <t>Martes</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Pio</t>
+          <t>Iñiguez</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Pio</t>
+          <t>Contreras</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Pio</t>
+          <t>Boettiger</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -722,7 +722,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Recluta1</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -731,29 +731,29 @@
         <v>2024</v>
       </c>
       <c r="B8" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C8" t="n">
         <v>7</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Domingo</t>
+          <t>Miércoles</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Alvo</t>
+          <t>Arredondo</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Alvo</t>
+          <t>Carrasco</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Alvo</t>
+          <t>Loch</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -763,7 +763,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Recluta1</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -772,29 +772,29 @@
         <v>2024</v>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C9" t="n">
         <v>8</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Lunes</t>
+          <t>Jueves</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Gomez</t>
+          <t>Bravo</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Cisternas</t>
+          <t>Culaciati</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Carrasco</t>
+          <t>Rubio</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -804,7 +804,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Recluta1</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -813,31 +813,31 @@
         <v>2024</v>
       </c>
       <c r="B10" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C10" t="n">
         <v>9</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Martes</t>
+          <t>Viernes</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Iñiguez</t>
+          <t>Breinbauer</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
+          <t>Loch</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
           <t>Contreras</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>Culaciati</t>
-        </is>
-      </c>
       <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve"> - </t>
@@ -845,7 +845,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Recluta1</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -854,29 +854,29 @@
         <v>2024</v>
       </c>
       <c r="B11" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C11" t="n">
         <v>10</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Miércoles</t>
+          <t>Sábado</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Arredondo</t>
+          <t>Boettiger</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Carrasco</t>
+          <t>Boettiger</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Contreras</t>
+          <t>Boettiger</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -886,7 +886,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Recluta1</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -895,29 +895,29 @@
         <v>2024</v>
       </c>
       <c r="B12" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C12" t="n">
         <v>11</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Jueves</t>
+          <t>Domingo</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Bravo</t>
+          <t>Loch</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Culaciati</t>
+          <t>Loch</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Cisternas</t>
+          <t>Loch</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -927,7 +927,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Recluta1</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -936,29 +936,29 @@
         <v>2024</v>
       </c>
       <c r="B13" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C13" t="n">
         <v>12</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Viernes</t>
+          <t>Lunes</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Breinbauer</t>
+          <t>Gomez</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Alvo</t>
+          <t>Cisternas</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Arredondo</t>
+          <t>Cisternas</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -968,7 +968,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Recluta1</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -977,29 +977,29 @@
         <v>2024</v>
       </c>
       <c r="B14" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C14" t="n">
         <v>13</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Sábado</t>
+          <t>Martes</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Boettiger</t>
+          <t>Iñiguez</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Boettiger</t>
+          <t>Contreras</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Boettiger</t>
+          <t>Recluta1</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1009,7 +1009,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Recluta1</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -1018,29 +1018,29 @@
         <v>2024</v>
       </c>
       <c r="B15" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C15" t="n">
         <v>14</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Domingo</t>
+          <t>Miércoles</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Loch</t>
+          <t>Arredondo</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Loch</t>
+          <t>Carrasco</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Loch</t>
+          <t>Pio</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1050,7 +1050,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Recluta1</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -1059,29 +1059,29 @@
         <v>2024</v>
       </c>
       <c r="B16" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C16" t="n">
         <v>15</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Lunes</t>
+          <t>Feriado o Especial</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Gomez</t>
+          <t>Sin asignar</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Cisternas</t>
+          <t>Sin asignar</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Pio</t>
+          <t>Feriado o Especial</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Recluta1</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -1100,24 +1100,24 @@
         <v>2024</v>
       </c>
       <c r="B17" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C17" t="n">
         <v>16</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Martes</t>
+          <t>Viernes</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Iñiguez</t>
+          <t>Breinbauer</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Contreras</t>
+          <t>Rubio</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1141,29 +1141,29 @@
         <v>2024</v>
       </c>
       <c r="B18" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C18" t="n">
         <v>17</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Miércoles</t>
+          <t>Sábado</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Arredondo</t>
+          <t>Rubio</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Carrasco</t>
+          <t>Rubio</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Boettiger</t>
+          <t>Rubio</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1182,29 +1182,29 @@
         <v>2024</v>
       </c>
       <c r="B19" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C19" t="n">
         <v>18</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Jueves</t>
+          <t>Domingo</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Bravo</t>
+          <t>Recluta1</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Culaciati</t>
+          <t>Recluta1</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Loch</t>
+          <t>Recluta1</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1223,29 +1223,29 @@
         <v>2024</v>
       </c>
       <c r="B20" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C20" t="n">
         <v>19</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Viernes</t>
+          <t>Lunes</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Breinbauer</t>
+          <t>Gomez</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
+          <t>Cisternas</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
           <t>Boettiger</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>Rubio</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1264,29 +1264,29 @@
         <v>2024</v>
       </c>
       <c r="B21" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C21" t="n">
         <v>20</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Sábado</t>
+          <t>Martes</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Gomez</t>
+          <t>Iñiguez</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Gomez</t>
+          <t>Contreras</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Recluta1</t>
+          <t>Loch</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1305,24 +1305,24 @@
         <v>2024</v>
       </c>
       <c r="B22" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C22" t="n">
         <v>21</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Domingo</t>
+          <t>Miércoles</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Bravo</t>
+          <t>Arredondo</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Bravo</t>
+          <t>Carrasco</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1346,29 +1346,29 @@
         <v>2024</v>
       </c>
       <c r="B23" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C23" t="n">
         <v>22</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Lunes</t>
+          <t>Jueves</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Gomez</t>
+          <t>Bravo</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Cisternas</t>
+          <t>Culaciati</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Recluta1</t>
+          <t>Contreras</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1387,29 +1387,29 @@
         <v>2024</v>
       </c>
       <c r="B24" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C24" t="n">
         <v>23</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Martes</t>
+          <t>Viernes</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Iñiguez</t>
+          <t>Breinbauer</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Contreras</t>
+          <t>Pio</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Carrasco</t>
+          <t>Cisternas</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1428,29 +1428,29 @@
         <v>2024</v>
       </c>
       <c r="B25" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C25" t="n">
         <v>24</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Miércoles</t>
+          <t>Sábado</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Arredondo</t>
+          <t>Gomez</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Carrasco</t>
+          <t>Gomez</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Culaciati</t>
+          <t>Recluta1</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1469,14 +1469,14 @@
         <v>2024</v>
       </c>
       <c r="B26" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C26" t="n">
         <v>25</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Jueves</t>
+          <t>Domingo</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1486,12 +1486,12 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Culaciati</t>
+          <t>Bravo</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Contreras</t>
+          <t>Rubio</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1510,29 +1510,29 @@
         <v>2024</v>
       </c>
       <c r="B27" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C27" t="n">
         <v>26</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Viernes</t>
+          <t>Lunes</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Breinbauer</t>
+          <t>Gomez</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Loch</t>
+          <t>Cisternas</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Cisternas</t>
+          <t>Recluta1</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1551,14 +1551,14 @@
         <v>2024</v>
       </c>
       <c r="B28" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C28" t="n">
         <v>27</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Sábado</t>
+          <t>Martes</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1568,12 +1568,12 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Iñiguez</t>
+          <t>Contreras</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Loch</t>
+          <t>Pio</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1592,29 +1592,29 @@
         <v>2024</v>
       </c>
       <c r="B29" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C29" t="n">
         <v>28</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Domingo</t>
+          <t>Miércoles</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Breinbauer</t>
+          <t>Arredondo</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Breinbauer</t>
+          <t>Carrasco</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Boettiger</t>
+          <t>Alvo</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1633,29 +1633,29 @@
         <v>2024</v>
       </c>
       <c r="B30" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C30" t="n">
         <v>29</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Lunes</t>
+          <t>Jueves</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Gomez</t>
+          <t>Bravo</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Cisternas</t>
+          <t>Culaciati</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Arredondo</t>
+          <t>Boettiger</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1674,29 +1674,29 @@
         <v>2024</v>
       </c>
       <c r="B31" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C31" t="n">
         <v>30</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Martes</t>
+          <t>Viernes</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Iñiguez</t>
+          <t>Breinbauer</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Contreras</t>
+          <t>Alvo</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Pio</t>
+          <t>Loch</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1715,29 +1715,29 @@
         <v>2024</v>
       </c>
       <c r="B32" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C32" t="n">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Feriado o Especial</t>
+          <t>Sábado</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Sin asignar</t>
+          <t>Iñiguez</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Sin asignar</t>
+          <t>Iñiguez</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Feriado o Especial</t>
+          <t>Loch</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1756,29 +1756,29 @@
         <v>2024</v>
       </c>
       <c r="B33" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Jueves</t>
+          <t>Domingo</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Bravo</t>
+          <t>Breinbauer</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Culaciati</t>
+          <t>Breinbauer</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Alvo</t>
+          <t>Boettiger</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1797,29 +1797,29 @@
         <v>2024</v>
       </c>
       <c r="B34" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Viernes</t>
+          <t>Lunes</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Breinbauer</t>
+          <t>Gomez</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
+          <t>Cisternas</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
           <t>Rubio</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>Boettiger</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1838,29 +1838,29 @@
         <v>2024</v>
       </c>
       <c r="B35" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Sábado</t>
+          <t>Martes</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Arredondo</t>
+          <t>Iñiguez</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Arredondo</t>
+          <t>Contreras</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Arredondo</t>
+          <t>Contreras</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -1879,29 +1879,29 @@
         <v>2024</v>
       </c>
       <c r="B36" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Domingo</t>
+          <t>Miércoles</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
+          <t>Arredondo</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
           <t>Carrasco</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>Carrasco</t>
-        </is>
-      </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Carrasco</t>
+          <t>Cisternas</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -1920,29 +1920,29 @@
         <v>2024</v>
       </c>
       <c r="B37" t="n">
+        <v>9</v>
+      </c>
+      <c r="C37" t="n">
         <v>5</v>
       </c>
-      <c r="C37" t="n">
-        <v>6</v>
-      </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Lunes</t>
+          <t>Jueves</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Gomez</t>
+          <t>Bravo</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Cisternas</t>
+          <t>Culaciati</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Loch</t>
+          <t>Recluta1</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -1961,29 +1961,29 @@
         <v>2024</v>
       </c>
       <c r="B38" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C38" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Martes</t>
+          <t>Viernes</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Iñiguez</t>
+          <t>Breinbauer</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Contreras</t>
+          <t>Recluta1</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Rubio</t>
+          <t>Pio</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2002,14 +2002,14 @@
         <v>2024</v>
       </c>
       <c r="B39" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C39" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Miércoles</t>
+          <t>Sábado</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2019,12 +2019,12 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Carrasco</t>
+          <t>Arredondo</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Recluta1</t>
+          <t>Alvo</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2043,29 +2043,29 @@
         <v>2024</v>
       </c>
       <c r="B40" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C40" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Jueves</t>
+          <t>Domingo</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Bravo</t>
+          <t>Carrasco</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Culaciati</t>
+          <t>Carrasco</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Carrasco</t>
+          <t>Pio</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2084,29 +2084,29 @@
         <v>2024</v>
       </c>
       <c r="B41" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C41" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Viernes</t>
+          <t>Lunes</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Breinbauer</t>
+          <t>Gomez</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Recluta1</t>
+          <t>Cisternas</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Culaciati</t>
+          <t>Alvo</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2125,29 +2125,29 @@
         <v>2024</v>
       </c>
       <c r="B42" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C42" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Sábado</t>
+          <t>Martes</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Culaciati</t>
+          <t>Iñiguez</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Culaciati</t>
+          <t>Contreras</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Culaciati</t>
+          <t>Boettiger</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2166,29 +2166,29 @@
         <v>2024</v>
       </c>
       <c r="B43" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C43" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Domingo</t>
+          <t>Miércoles</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Contreras</t>
+          <t>Arredondo</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Contreras</t>
+          <t>Carrasco</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Contreras</t>
+          <t>Loch</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2207,29 +2207,29 @@
         <v>2024</v>
       </c>
       <c r="B44" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C44" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Lunes</t>
+          <t>Jueves</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Gomez</t>
+          <t>Bravo</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Cisternas</t>
+          <t>Culaciati</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Contreras</t>
+          <t>Rubio</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2248,29 +2248,29 @@
         <v>2024</v>
       </c>
       <c r="B45" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C45" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Martes</t>
+          <t>Viernes</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Iñiguez</t>
+          <t>Breinbauer</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
+          <t>Boettiger</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
           <t>Contreras</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>Cisternas</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2289,29 +2289,29 @@
         <v>2024</v>
       </c>
       <c r="B46" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C46" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Miércoles</t>
+          <t>Sábado</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Arredondo</t>
+          <t>Culaciati</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Carrasco</t>
+          <t>Culaciati</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Arredondo</t>
+          <t>Recluta1</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -2330,29 +2330,29 @@
         <v>2024</v>
       </c>
       <c r="B47" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C47" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Jueves</t>
+          <t>Domingo</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Bravo</t>
+          <t>Contreras</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Culaciati</t>
+          <t>Contreras</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Pio</t>
+          <t>Contreras</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2371,29 +2371,29 @@
         <v>2024</v>
       </c>
       <c r="B48" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C48" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Viernes</t>
+          <t>Lunes</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Breinbauer</t>
+          <t>Gomez</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Pio</t>
+          <t>Cisternas</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Alvo</t>
+          <t>Cisternas</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -2412,29 +2412,29 @@
         <v>2024</v>
       </c>
       <c r="B49" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C49" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Sábado</t>
+          <t>Martes</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Cisternas</t>
+          <t>Iñiguez</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Cisternas</t>
+          <t>Contreras</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Cisternas</t>
+          <t>Recluta1</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -2453,29 +2453,29 @@
         <v>2024</v>
       </c>
       <c r="B50" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C50" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Domingo</t>
+          <t>Feriado o Especial</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Rubio</t>
+          <t>Sin asignar</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Rubio</t>
+          <t>Sin asignar</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Rubio</t>
+          <t>Feriado o Especial</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -2494,10 +2494,10 @@
         <v>2024</v>
       </c>
       <c r="B51" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C51" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -2535,29 +2535,29 @@
         <v>2024</v>
       </c>
       <c r="B52" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C52" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Feriado o Especial</t>
+          <t>Viernes</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Sin asignar</t>
+          <t>Breinbauer</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Sin asignar</t>
+          <t>Loch</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Feriado o Especial</t>
+          <t>Pio</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -2576,29 +2576,29 @@
         <v>2024</v>
       </c>
       <c r="B53" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C53" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Feriado o Especial</t>
+          <t>Sábado</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Sin asignar</t>
+          <t>Cisternas</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Sin asignar</t>
+          <t>Cisternas</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Feriado o Especial</t>
+          <t>Cisternas</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -2617,29 +2617,29 @@
         <v>2024</v>
       </c>
       <c r="B54" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C54" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Jueves</t>
+          <t>Domingo</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Bravo</t>
+          <t>Pio</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Culaciati</t>
+          <t>Pio</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Boettiger</t>
+          <t>Pio</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -2658,29 +2658,29 @@
         <v>2024</v>
       </c>
       <c r="B55" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C55" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Viernes</t>
+          <t>Lunes</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Breinbauer</t>
+          <t>Gomez</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
+          <t>Cisternas</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
           <t>Alvo</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>Loch</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -2699,29 +2699,29 @@
         <v>2024</v>
       </c>
       <c r="B56" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C56" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Sábado</t>
+          <t>Martes</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Recluta1</t>
+          <t>Iñiguez</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Recluta1</t>
+          <t>Contreras</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Recluta1</t>
+          <t>Boettiger</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -2740,29 +2740,29 @@
         <v>2024</v>
       </c>
       <c r="B57" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C57" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Domingo</t>
+          <t>Miércoles</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Pio</t>
+          <t>Arredondo</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Pio</t>
+          <t>Carrasco</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Pio</t>
+          <t>Loch</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -2781,24 +2781,24 @@
         <v>2024</v>
       </c>
       <c r="B58" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C58" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Lunes</t>
+          <t>Jueves</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Gomez</t>
+          <t>Bravo</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Cisternas</t>
+          <t>Culaciati</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -2822,29 +2822,29 @@
         <v>2024</v>
       </c>
       <c r="B59" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C59" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Martes</t>
+          <t>Viernes</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Iñiguez</t>
+          <t>Breinbauer</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
+          <t>Rubio</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
           <t>Contreras</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>Recluta1</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -2863,29 +2863,29 @@
         <v>2024</v>
       </c>
       <c r="B60" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C60" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Miércoles</t>
+          <t>Sábado</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Arredondo</t>
+          <t>Alvo</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Carrasco</t>
+          <t>Alvo</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Carrasco</t>
+          <t>Alvo</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -2904,29 +2904,29 @@
         <v>2024</v>
       </c>
       <c r="B61" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C61" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Jueves</t>
+          <t>Domingo</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Bravo</t>
+          <t>Boettiger</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Culaciati</t>
+          <t>Boettiger</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Culaciati</t>
+          <t>Boettiger</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -2945,29 +2945,29 @@
         <v>2024</v>
       </c>
       <c r="B62" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C62" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Viernes</t>
+          <t>Lunes</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Breinbauer</t>
+          <t>Gomez</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Boettiger</t>
+          <t>Cisternas</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Contreras</t>
+          <t>Cisternas</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -2986,29 +2986,29 @@
         <v>2024</v>
       </c>
       <c r="B63" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C63" t="n">
         <v>1</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Sábado</t>
+          <t>Martes</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Alvo</t>
+          <t>Iñiguez</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Alvo</t>
+          <t>Contreras</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Alvo</t>
+          <t>Recluta1</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -3027,29 +3027,29 @@
         <v>2024</v>
       </c>
       <c r="B64" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C64" t="n">
         <v>2</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Domingo</t>
+          <t>Miércoles</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Boettiger</t>
+          <t>Arredondo</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Boettiger</t>
+          <t>Carrasco</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Boettiger</t>
+          <t>Pio</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -3068,29 +3068,29 @@
         <v>2024</v>
       </c>
       <c r="B65" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C65" t="n">
         <v>3</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Lunes</t>
+          <t>Jueves</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Gomez</t>
+          <t>Bravo</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Cisternas</t>
+          <t>Culaciati</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Cisternas</t>
+          <t>Alvo</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -3109,29 +3109,29 @@
         <v>2024</v>
       </c>
       <c r="B66" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C66" t="n">
         <v>4</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Martes</t>
+          <t>Viernes</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Iñiguez</t>
+          <t>Breinbauer</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Contreras</t>
+          <t>Pio</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Pio</t>
+          <t>Boettiger</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -3150,29 +3150,29 @@
         <v>2024</v>
       </c>
       <c r="B67" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C67" t="n">
         <v>5</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Miércoles</t>
+          <t>Sábado</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Arredondo</t>
+          <t>Loch</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Carrasco</t>
+          <t>Loch</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Alvo</t>
+          <t>Loch</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -3191,29 +3191,29 @@
         <v>2024</v>
       </c>
       <c r="B68" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C68" t="n">
         <v>6</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Jueves</t>
+          <t>Domingo</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Bravo</t>
+          <t>Rubio</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Culaciati</t>
+          <t>Rubio</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Boettiger</t>
+          <t>Rubio</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -3232,24 +3232,24 @@
         <v>2024</v>
       </c>
       <c r="B69" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C69" t="n">
         <v>7</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Viernes</t>
+          <t>Lunes</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Breinbauer</t>
+          <t>Gomez</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Loch</t>
+          <t>Cisternas</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -3273,29 +3273,29 @@
         <v>2024</v>
       </c>
       <c r="B70" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C70" t="n">
         <v>8</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Sábado</t>
+          <t>Martes</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Loch</t>
+          <t>Iñiguez</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Loch</t>
+          <t>Contreras</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Loch</t>
+          <t>Rubio</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -3314,29 +3314,29 @@
         <v>2024</v>
       </c>
       <c r="B71" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C71" t="n">
         <v>9</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Domingo</t>
+          <t>Miércoles</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Gomez</t>
+          <t>Arredondo</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Gomez</t>
+          <t>Carrasco</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Alvo</t>
+          <t>Contreras</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -3355,29 +3355,29 @@
         <v>2024</v>
       </c>
       <c r="B72" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C72" t="n">
         <v>10</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Lunes</t>
+          <t>Jueves</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Gomez</t>
+          <t>Bravo</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
+          <t>Culaciati</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
           <t>Cisternas</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>Rubio</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -3396,24 +3396,24 @@
         <v>2024</v>
       </c>
       <c r="B73" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C73" t="n">
         <v>11</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Martes</t>
+          <t>Viernes</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Iñiguez</t>
+          <t>Breinbauer</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Contreras</t>
+          <t>Alvo</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -3437,29 +3437,29 @@
         <v>2024</v>
       </c>
       <c r="B74" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C74" t="n">
         <v>12</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Miércoles</t>
+          <t>Sábado</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Arredondo</t>
+          <t>Recluta1</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Carrasco</t>
+          <t>Recluta1</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Arredondo</t>
+          <t>Recluta1</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -3478,29 +3478,29 @@
         <v>2024</v>
       </c>
       <c r="B75" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C75" t="n">
         <v>13</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Jueves</t>
+          <t>Domingo</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Bravo</t>
+          <t>Pio</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Culaciati</t>
+          <t>Pio</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Carrasco</t>
+          <t>Pio</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -3519,29 +3519,29 @@
         <v>2024</v>
       </c>
       <c r="B76" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C76" t="n">
         <v>14</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Viernes</t>
+          <t>Lunes</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Breinbauer</t>
+          <t>Gomez</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Rubio</t>
+          <t>Cisternas</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Culaciati</t>
+          <t>Pio</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -3560,29 +3560,29 @@
         <v>2024</v>
       </c>
       <c r="B77" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C77" t="n">
         <v>15</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Sábado</t>
+          <t>Martes</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Bravo</t>
+          <t>Iñiguez</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Bravo</t>
+          <t>Contreras</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Pio</t>
+          <t>Alvo</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -3601,29 +3601,29 @@
         <v>2024</v>
       </c>
       <c r="B78" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C78" t="n">
         <v>16</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Domingo</t>
+          <t>Miércoles</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Iñiguez</t>
+          <t>Arredondo</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Iñiguez</t>
+          <t>Carrasco</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Recluta1</t>
+          <t>Boettiger</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -3642,29 +3642,29 @@
         <v>2024</v>
       </c>
       <c r="B79" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C79" t="n">
         <v>17</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Lunes</t>
+          <t>Jueves</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Gomez</t>
+          <t>Bravo</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Cisternas</t>
+          <t>Culaciati</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Contreras</t>
+          <t>Loch</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -3683,29 +3683,29 @@
         <v>2024</v>
       </c>
       <c r="B80" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C80" t="n">
         <v>18</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Martes</t>
+          <t>Viernes</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Iñiguez</t>
+          <t>Breinbauer</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Contreras</t>
+          <t>Recluta1</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Cisternas</t>
+          <t>Rubio</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -3724,29 +3724,29 @@
         <v>2024</v>
       </c>
       <c r="B81" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C81" t="n">
         <v>19</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Miércoles</t>
+          <t>Sábado</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Arredondo</t>
+          <t>Alvo</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Carrasco</t>
+          <t>Alvo</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Pio</t>
+          <t>Alvo</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -3765,29 +3765,29 @@
         <v>2024</v>
       </c>
       <c r="B82" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C82" t="n">
         <v>20</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Feriado o Especial</t>
+          <t>Domingo</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Sin asignar</t>
+          <t>Boettiger</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Sin asignar</t>
+          <t>Boettiger</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Feriado o Especial</t>
+          <t>Boettiger</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -3806,29 +3806,29 @@
         <v>2024</v>
       </c>
       <c r="B83" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C83" t="n">
         <v>21</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Viernes</t>
+          <t>Lunes</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Breinbauer</t>
+          <t>Gomez</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
+          <t>Cisternas</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
           <t>Recluta1</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>Alvo</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -3847,29 +3847,29 @@
         <v>2024</v>
       </c>
       <c r="B84" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C84" t="n">
         <v>22</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Sábado</t>
+          <t>Martes</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Breinbauer</t>
+          <t>Iñiguez</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Breinbauer</t>
+          <t>Contreras</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Rubio</t>
+          <t>Contreras</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -3888,14 +3888,14 @@
         <v>2024</v>
       </c>
       <c r="B85" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C85" t="n">
         <v>23</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Domingo</t>
+          <t>Miércoles</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -3905,12 +3905,12 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Arredondo</t>
+          <t>Carrasco</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Arredondo</t>
+          <t>Cisternas</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -3929,29 +3929,29 @@
         <v>2024</v>
       </c>
       <c r="B86" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C86" t="n">
         <v>24</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Lunes</t>
+          <t>Jueves</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Gomez</t>
+          <t>Bravo</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Cisternas</t>
+          <t>Culaciati</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Boettiger</t>
+          <t>Pio</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -3970,29 +3970,29 @@
         <v>2024</v>
       </c>
       <c r="B87" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C87" t="n">
         <v>25</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Martes</t>
+          <t>Viernes</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Iñiguez</t>
+          <t>Breinbauer</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Contreras</t>
+          <t>Boettiger</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Loch</t>
+          <t>Alvo</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -4011,29 +4011,29 @@
         <v>2024</v>
       </c>
       <c r="B88" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C88" t="n">
         <v>26</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Miércoles</t>
+          <t>Sábado</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Arredondo</t>
+          <t>Loch</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Carrasco</t>
+          <t>Loch</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Rubio</t>
+          <t>Loch</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -4052,29 +4052,29 @@
         <v>2024</v>
       </c>
       <c r="B89" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C89" t="n">
         <v>27</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Jueves</t>
+          <t>Domingo</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Bravo</t>
+          <t>Rubio</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Culaciati</t>
+          <t>Rubio</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Recluta1</t>
+          <t>Rubio</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -4093,29 +4093,29 @@
         <v>2024</v>
       </c>
       <c r="B90" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C90" t="n">
         <v>28</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Viernes</t>
+          <t>Lunes</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Breinbauer</t>
+          <t>Gomez</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Pio</t>
+          <t>Cisternas</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Arredondo</t>
+          <t>Boettiger</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -4134,29 +4134,29 @@
         <v>2024</v>
       </c>
       <c r="B91" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C91" t="n">
         <v>29</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Sábado</t>
+          <t>Martes</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Carrasco</t>
+          <t>Iñiguez</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Carrasco</t>
+          <t>Contreras</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Carrasco</t>
+          <t>Loch</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -4175,29 +4175,29 @@
         <v>2024</v>
       </c>
       <c r="B92" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C92" t="n">
         <v>30</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Domingo</t>
+          <t>Miércoles</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Culaciati</t>
+          <t>Arredondo</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Culaciati</t>
+          <t>Carrasco</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Culaciati</t>
+          <t>Rubio</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -4216,29 +4216,29 @@
         <v>2024</v>
       </c>
       <c r="B93" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C93" t="n">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Lunes</t>
+          <t>Feriado o Especial</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Gomez</t>
+          <t>Sin asignar</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Cisternas</t>
+          <t>Sin asignar</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Carrasco</t>
+          <t>Feriado o Especial</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -4257,29 +4257,29 @@
         <v>2024</v>
       </c>
       <c r="B94" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Martes</t>
+          <t>Feriado o Especial</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Iñiguez</t>
+          <t>Sin asignar</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Contreras</t>
+          <t>Sin asignar</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Culaciati</t>
+          <t>Feriado o Especial</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -4298,29 +4298,29 @@
         <v>2024</v>
       </c>
       <c r="B95" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Miércoles</t>
+          <t>Feriado o Especial</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Arredondo</t>
+          <t>Sin asignar</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Carrasco</t>
+          <t>Sin asignar</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Contreras</t>
+          <t>Feriado o Especial</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -4339,29 +4339,29 @@
         <v>2024</v>
       </c>
       <c r="B96" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Jueves</t>
+          <t>Feriado o Especial</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Bravo</t>
+          <t>Sin asignar</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Culaciati</t>
+          <t>Sin asignar</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Cisternas</t>
+          <t>Feriado o Especial</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -4380,29 +4380,29 @@
         <v>2024</v>
       </c>
       <c r="B97" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Viernes</t>
+          <t>Lunes</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Breinbauer</t>
+          <t>Gomez</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Alvo</t>
+          <t>Cisternas</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>Pio</t>
+          <t>Recluta1</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -4421,19 +4421,19 @@
         <v>2024</v>
       </c>
       <c r="B98" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C98" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Sábado</t>
+          <t>Martes</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Contreras</t>
+          <t>Iñiguez</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -4462,24 +4462,24 @@
         <v>2024</v>
       </c>
       <c r="B99" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C99" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Domingo</t>
+          <t>Miércoles</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Cisternas</t>
+          <t>Arredondo</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Cisternas</t>
+          <t>Carrasco</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
@@ -4503,29 +4503,29 @@
         <v>2024</v>
       </c>
       <c r="B100" t="n">
+        <v>11</v>
+      </c>
+      <c r="C100" t="n">
         <v>7</v>
       </c>
-      <c r="C100" t="n">
-        <v>8</v>
-      </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Lunes</t>
+          <t>Jueves</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Gomez</t>
+          <t>Bravo</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Cisternas</t>
+          <t>Culaciati</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Alvo</t>
+          <t>Pio</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -4544,29 +4544,29 @@
         <v>2024</v>
       </c>
       <c r="B101" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C101" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Martes</t>
+          <t>Viernes</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Iñiguez</t>
+          <t>Breinbauer</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Contreras</t>
+          <t>Loch</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Boettiger</t>
+          <t>Alvo</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -4585,29 +4585,29 @@
         <v>2024</v>
       </c>
       <c r="B102" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C102" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Miércoles</t>
+          <t>Sábado</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Arredondo</t>
+          <t>Recluta1</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Carrasco</t>
+          <t>Recluta1</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Loch</t>
+          <t>Recluta1</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -4626,24 +4626,24 @@
         <v>2024</v>
       </c>
       <c r="B103" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C103" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Jueves</t>
+          <t>Domingo</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Bravo</t>
+          <t>Gomez</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Culaciati</t>
+          <t>Gomez</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
@@ -4667,29 +4667,29 @@
         <v>2024</v>
       </c>
       <c r="B104" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C104" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Viernes</t>
+          <t>Lunes</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Breinbauer</t>
+          <t>Gomez</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
+          <t>Cisternas</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
           <t>Boettiger</t>
-        </is>
-      </c>
-      <c r="G104" t="inlineStr">
-        <is>
-          <t>Recluta1</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -4708,29 +4708,29 @@
         <v>2024</v>
       </c>
       <c r="B105" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C105" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Sábado</t>
+          <t>Martes</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Rubio</t>
+          <t>Iñiguez</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Rubio</t>
+          <t>Contreras</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>Rubio</t>
+          <t>Loch</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -4749,29 +4749,29 @@
         <v>2024</v>
       </c>
       <c r="B106" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C106" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Domingo</t>
+          <t>Miércoles</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Recluta1</t>
+          <t>Arredondo</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Recluta1</t>
+          <t>Carrasco</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>Recluta1</t>
+          <t>Rubio</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -4790,29 +4790,29 @@
         <v>2024</v>
       </c>
       <c r="B107" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C107" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Lunes</t>
+          <t>Jueves</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Gomez</t>
+          <t>Bravo</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Cisternas</t>
+          <t>Culaciati</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>Arredondo</t>
+          <t>Recluta1</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -4831,29 +4831,29 @@
         <v>2024</v>
       </c>
       <c r="B108" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C108" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Feriado o Especial</t>
+          <t>Viernes</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Sin asignar</t>
+          <t>Breinbauer</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Sin asignar</t>
+          <t>Rubio</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>Feriado o Especial</t>
+          <t>Contreras</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
@@ -4872,29 +4872,29 @@
         <v>2024</v>
       </c>
       <c r="B109" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C109" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Miércoles</t>
+          <t>Sábado</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Arredondo</t>
+          <t>Bravo</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Carrasco</t>
+          <t>Bravo</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>Carrasco</t>
+          <t>Loch</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
@@ -4913,29 +4913,29 @@
         <v>2024</v>
       </c>
       <c r="B110" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C110" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Jueves</t>
+          <t>Domingo</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Bravo</t>
+          <t>Iñiguez</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Culaciati</t>
+          <t>Iñiguez</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>Culaciati</t>
+          <t>Boettiger</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
@@ -4954,29 +4954,29 @@
         <v>2024</v>
       </c>
       <c r="B111" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C111" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Viernes</t>
+          <t>Lunes</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Breinbauer</t>
+          <t>Gomez</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Loch</t>
+          <t>Cisternas</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>Contreras</t>
+          <t>Cisternas</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
@@ -4995,24 +4995,24 @@
         <v>2024</v>
       </c>
       <c r="B112" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C112" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Sábado</t>
+          <t>Martes</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Pio</t>
+          <t>Iñiguez</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Pio</t>
+          <t>Contreras</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
@@ -5036,24 +5036,24 @@
         <v>2024</v>
       </c>
       <c r="B113" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C113" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Domingo</t>
+          <t>Miércoles</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Alvo</t>
+          <t>Arredondo</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Alvo</t>
+          <t>Carrasco</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
@@ -5077,29 +5077,29 @@
         <v>2024</v>
       </c>
       <c r="B114" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C114" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Lunes</t>
+          <t>Jueves</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Gomez</t>
+          <t>Bravo</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Cisternas</t>
+          <t>Culaciati</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>Cisternas</t>
+          <t>Boettiger</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
@@ -5118,29 +5118,29 @@
         <v>2024</v>
       </c>
       <c r="B115" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C115" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Martes</t>
+          <t>Viernes</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Iñiguez</t>
+          <t>Breinbauer</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Contreras</t>
+          <t>Pio</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>Pio</t>
+          <t>Loch</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
@@ -5159,24 +5159,24 @@
         <v>2024</v>
       </c>
       <c r="B116" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C116" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Miércoles</t>
+          <t>Sábado</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Arredondo</t>
+          <t>Breinbauer</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Carrasco</t>
+          <t>Breinbauer</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
@@ -5200,29 +5200,29 @@
         <v>2024</v>
       </c>
       <c r="B117" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C117" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Jueves</t>
+          <t>Domingo</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Bravo</t>
+          <t>Arredondo</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Culaciati</t>
+          <t>Arredondo</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>Boettiger</t>
+          <t>Pio</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
@@ -5241,29 +5241,29 @@
         <v>2024</v>
       </c>
       <c r="B118" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C118" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Viernes</t>
+          <t>Lunes</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Breinbauer</t>
+          <t>Gomez</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
+          <t>Cisternas</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
           <t>Rubio</t>
-        </is>
-      </c>
-      <c r="G118" t="inlineStr">
-        <is>
-          <t>Loch</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
@@ -5282,29 +5282,29 @@
         <v>2024</v>
       </c>
       <c r="B119" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C119" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Sábado</t>
+          <t>Martes</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Boettiger</t>
+          <t>Iñiguez</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Boettiger</t>
+          <t>Contreras</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>Boettiger</t>
+          <t>Recluta1</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
@@ -5323,29 +5323,29 @@
         <v>2024</v>
       </c>
       <c r="B120" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C120" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Domingo</t>
+          <t>Miércoles</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Loch</t>
+          <t>Arredondo</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Loch</t>
+          <t>Carrasco</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>Loch</t>
+          <t>Contreras</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
@@ -5364,29 +5364,29 @@
         <v>2024</v>
       </c>
       <c r="B121" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C121" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Lunes</t>
+          <t>Jueves</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Gomez</t>
+          <t>Bravo</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
+          <t>Culaciati</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
           <t>Cisternas</t>
-        </is>
-      </c>
-      <c r="G121" t="inlineStr">
-        <is>
-          <t>Rubio</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
@@ -5405,29 +5405,29 @@
         <v>2024</v>
       </c>
       <c r="B122" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C122" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Martes</t>
+          <t>Viernes</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Iñiguez</t>
+          <t>Breinbauer</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Contreras</t>
+          <t>Alvo</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>Recluta1</t>
+          <t>Pio</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
@@ -5446,37 +5446,1349 @@
         <v>2024</v>
       </c>
       <c r="B123" t="n">
+        <v>11</v>
+      </c>
+      <c r="C123" t="n">
+        <v>30</v>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>Sábado</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>Carrasco</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Carrasco</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>Recluta1</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> - </t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B124" t="n">
+        <v>12</v>
+      </c>
+      <c r="C124" t="n">
+        <v>1</v>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>Domingo</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>Culaciati</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Culaciati</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>Rubio</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> - </t>
+        </is>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B125" t="n">
+        <v>12</v>
+      </c>
+      <c r="C125" t="n">
+        <v>2</v>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>Lunes</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>Gomez</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Cisternas</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>Alvo</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> - </t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B126" t="n">
+        <v>12</v>
+      </c>
+      <c r="C126" t="n">
+        <v>3</v>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>Martes</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>Iñiguez</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Contreras</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>Boettiger</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> - </t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B127" t="n">
+        <v>12</v>
+      </c>
+      <c r="C127" t="n">
+        <v>4</v>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>Miércoles</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>Arredondo</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Carrasco</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>Loch</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> - </t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B128" t="n">
+        <v>12</v>
+      </c>
+      <c r="C128" t="n">
+        <v>5</v>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>Jueves</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>Bravo</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Culaciati</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>Rubio</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> - </t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B129" t="n">
+        <v>12</v>
+      </c>
+      <c r="C129" t="n">
+        <v>6</v>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>Viernes</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>Breinbauer</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Recluta1</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>Recluta1</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> - </t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B130" t="n">
+        <v>12</v>
+      </c>
+      <c r="C130" t="n">
         <v>7</v>
       </c>
-      <c r="C123" t="n">
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>Sábado</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>Contreras</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>Contreras</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>Contreras</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> - </t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B131" t="n">
+        <v>12</v>
+      </c>
+      <c r="C131" t="n">
+        <v>8</v>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Domingo</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>Cisternas</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Cisternas</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>Cisternas</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> - </t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B132" t="n">
+        <v>12</v>
+      </c>
+      <c r="C132" t="n">
+        <v>9</v>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>Lunes</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>Gomez</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Cisternas</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>Contreras</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> - </t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B133" t="n">
+        <v>12</v>
+      </c>
+      <c r="C133" t="n">
+        <v>10</v>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>Martes</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>Iñiguez</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Contreras</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>Cisternas</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> - </t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B134" t="n">
+        <v>12</v>
+      </c>
+      <c r="C134" t="n">
+        <v>11</v>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>Miércoles</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>Arredondo</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>Carrasco</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>Pio</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> - </t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B135" t="n">
+        <v>12</v>
+      </c>
+      <c r="C135" t="n">
+        <v>12</v>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>Jueves</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>Bravo</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>Culaciati</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>Alvo</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> - </t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B136" t="n">
+        <v>12</v>
+      </c>
+      <c r="C136" t="n">
+        <v>13</v>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>Viernes</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>Breinbauer</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Boettiger</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>Boettiger</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> - </t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B137" t="n">
+        <v>12</v>
+      </c>
+      <c r="C137" t="n">
+        <v>14</v>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>Sábado</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>Pio</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>Pio</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>Pio</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> - </t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B138" t="n">
+        <v>12</v>
+      </c>
+      <c r="C138" t="n">
+        <v>15</v>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>Domingo</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>Alvo</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>Alvo</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>Alvo</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> - </t>
+        </is>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B139" t="n">
+        <v>12</v>
+      </c>
+      <c r="C139" t="n">
+        <v>16</v>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>Lunes</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>Gomez</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>Cisternas</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>Loch</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> - </t>
+        </is>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B140" t="n">
+        <v>12</v>
+      </c>
+      <c r="C140" t="n">
+        <v>17</v>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>Martes</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>Iñiguez</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>Contreras</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>Rubio</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> - </t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B141" t="n">
+        <v>12</v>
+      </c>
+      <c r="C141" t="n">
+        <v>18</v>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>Miércoles</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>Arredondo</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>Carrasco</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>Recluta1</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> - </t>
+        </is>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B142" t="n">
+        <v>12</v>
+      </c>
+      <c r="C142" t="n">
+        <v>19</v>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>Jueves</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>Bravo</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>Culaciati</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>Contreras</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> - </t>
+        </is>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B143" t="n">
+        <v>12</v>
+      </c>
+      <c r="C143" t="n">
+        <v>20</v>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>Viernes</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>Breinbauer</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>Loch</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>Cisternas</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> - </t>
+        </is>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B144" t="n">
+        <v>12</v>
+      </c>
+      <c r="C144" t="n">
+        <v>21</v>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>Sábado</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>Boettiger</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>Boettiger</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>Boettiger</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> - </t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B145" t="n">
+        <v>12</v>
+      </c>
+      <c r="C145" t="n">
+        <v>22</v>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>Domingo</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>Loch</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>Loch</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>Loch</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> - </t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B146" t="n">
+        <v>12</v>
+      </c>
+      <c r="C146" t="n">
+        <v>23</v>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>Lunes</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>Gomez</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>Cisternas</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>Pio</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> - </t>
+        </is>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B147" t="n">
+        <v>12</v>
+      </c>
+      <c r="C147" t="n">
+        <v>24</v>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>Martes</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>Iñiguez</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>Contreras</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>Alvo</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> - </t>
+        </is>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B148" t="n">
+        <v>12</v>
+      </c>
+      <c r="C148" t="n">
+        <v>25</v>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>Feriado o Especial</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>Sin asignar</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>Sin asignar</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>Feriado o Especial</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> - </t>
+        </is>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B149" t="n">
+        <v>12</v>
+      </c>
+      <c r="C149" t="n">
+        <v>26</v>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>Jueves</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>Bravo</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>Culaciati</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>Boettiger</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> - </t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B150" t="n">
+        <v>12</v>
+      </c>
+      <c r="C150" t="n">
+        <v>27</v>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>Viernes</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>Breinbauer</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>Rubio</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>Loch</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> - </t>
+        </is>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B151" t="n">
+        <v>12</v>
+      </c>
+      <c r="C151" t="n">
+        <v>28</v>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>Sábado</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>Rubio</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>Rubio</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>Rubio</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> - </t>
+        </is>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B152" t="n">
+        <v>12</v>
+      </c>
+      <c r="C152" t="n">
+        <v>29</v>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>Domingo</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>Recluta1</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>Recluta1</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>Recluta1</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> - </t>
+        </is>
+      </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B153" t="n">
+        <v>12</v>
+      </c>
+      <c r="C153" t="n">
+        <v>30</v>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>Lunes</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>Gomez</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>Cisternas</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>Rubio</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> - </t>
+        </is>
+      </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B154" t="n">
+        <v>12</v>
+      </c>
+      <c r="C154" t="n">
         <v>31</v>
       </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>Miércoles</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>Arredondo</t>
-        </is>
-      </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>Carrasco</t>
-        </is>
-      </c>
-      <c r="G123" t="inlineStr">
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>Martes</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>Iñiguez</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>Contreras</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
         <is>
           <t>Recluta1</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> - </t>
-        </is>
-      </c>
-      <c r="I123" t="inlineStr">
+      <c r="H154" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> - </t>
+        </is>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B155" t="n">
+        <v>1</v>
+      </c>
+      <c r="C155" t="n">
+        <v>1</v>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>Feriado o Especial</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>Sin asignar</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>Sin asignar</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>Feriado o Especial</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> - </t>
+        </is>
+      </c>
+      <c r="I155" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
